--- a/ConvertedEqual/Tennessee_Converted.xlsx
+++ b/ConvertedEqual/Tennessee_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="273">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -798,6 +798,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X221"/>
+  <dimension ref="A1:X233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1488,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1503,7 +1539,7 @@
         <v>0.5</v>
       </c>
       <c r="X7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -2988,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -3062,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -3136,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3210,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3284,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3358,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3432,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3506,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3580,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3654,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3728,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3802,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3876,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="X40">
-        <v>0.5769230769230769</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3950,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="X41">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -4024,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="X42">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4098,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="X43">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -4172,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="X44">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -4246,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="X45">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -4320,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="X46">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4394,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="X47">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4468,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="X48">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4542,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="X49">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4616,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="X50">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4690,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="X51">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4764,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="X52">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4838,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="X53">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4912,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="X54">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4986,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="X55">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -5060,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="X56">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -5134,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="X57">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -5208,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="X58">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -5282,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="X59">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -5356,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="X60">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -5430,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="X61">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -5504,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="X62">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -5578,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="X63">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -5652,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="X64">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -5726,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="X65">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -5800,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="X66">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -5874,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="X67">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -5948,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="X68">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -6022,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="X69">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -6096,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="X70">
-        <v>0.6538461538461539</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -6170,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="X71">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -6244,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="X72">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -6318,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="X73">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -6392,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="X74">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -6466,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="X75">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -6540,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -6614,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -6688,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -6762,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -6836,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="X80">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -6910,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="X81">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -6984,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="X82">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -7058,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -7132,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -7206,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -7280,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -7354,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -7428,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -7502,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -7576,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -7650,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -7724,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -7798,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -7872,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -7946,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -8020,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -8094,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -8168,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="X98">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -8242,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="X99">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -8316,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="X100">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -8390,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="X101">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -8464,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="X102">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -8538,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="X103">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -8612,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="X104">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="105" spans="1:24">
@@ -8686,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="X105">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -8760,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="X106">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -8834,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="X107">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -8908,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="X108">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -8982,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="X109">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -9056,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="X110">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -9130,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="X111">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -9204,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="X112">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -9278,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="X113">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -9352,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="X114">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -9426,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="X115">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -9500,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="X116">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -9574,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="X117">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -9648,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="X118">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -9722,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="X119">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -9796,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="X120">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -9870,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="X121">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -9944,7 +9980,7 @@
         <v>0</v>
       </c>
       <c r="X122">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -10018,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="X123">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -10092,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="X124">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -10166,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="X125">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -10240,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="X126">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -10314,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="X127">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -10388,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="X128">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -10462,7 +10498,7 @@
         <v>0</v>
       </c>
       <c r="X129">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -10536,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="X130">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -10610,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="X131">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -10684,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="X132">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -10758,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="X133">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -10832,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="X134">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -10906,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="X135">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -10980,7 +11016,7 @@
         <v>0</v>
       </c>
       <c r="X136">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -11054,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="X137">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -11128,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="X138">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -11202,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="X139">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140" spans="1:24">
@@ -11276,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="X140">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -11350,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="X141">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142" spans="1:24">
@@ -11424,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="X142">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -11498,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="X143">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:24">
@@ -11572,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="X144">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -11646,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="X145">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -11720,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="X146">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147" spans="1:24">
@@ -11794,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="X147">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -11868,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="X148">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149" spans="1:24">
@@ -11942,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="X149">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -12016,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="X150">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -12090,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="X151">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -12164,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="X152">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="153" spans="1:24">
@@ -12238,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="X153">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="154" spans="1:24">
@@ -12312,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="X154">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -12386,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="X155">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -12460,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="X156">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="157" spans="1:24">
@@ -12534,7 +12570,7 @@
         <v>0</v>
       </c>
       <c r="X157">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -12608,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="X158">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="159" spans="1:24">
@@ -12682,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="X159">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="160" spans="1:24">
@@ -12756,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="X160">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="161" spans="1:24">
@@ -12830,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="X161">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -12904,7 +12940,7 @@
         <v>0</v>
       </c>
       <c r="X162">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="163" spans="1:24">
@@ -12978,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="X163">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="164" spans="1:24">
@@ -13052,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="X164">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="165" spans="1:24">
@@ -13126,7 +13162,7 @@
         <v>0</v>
       </c>
       <c r="X165">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="166" spans="1:24">
@@ -13200,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="X166">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="167" spans="1:24">
@@ -13274,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="X167">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="168" spans="1:24">
@@ -13348,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="X168">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="169" spans="1:24">
@@ -13422,7 +13458,7 @@
         <v>0</v>
       </c>
       <c r="X169">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="170" spans="1:24">
@@ -13496,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="X170">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="171" spans="1:24">
@@ -13570,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="X171">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -13644,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="X172">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -13718,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="X173">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="174" spans="1:24">
@@ -13792,7 +13828,7 @@
         <v>0</v>
       </c>
       <c r="X174">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="175" spans="1:24">
@@ -13866,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="X175">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="176" spans="1:24">
@@ -13940,7 +13976,7 @@
         <v>0</v>
       </c>
       <c r="X176">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -14014,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="X177">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="178" spans="1:24">
@@ -14088,7 +14124,7 @@
         <v>0</v>
       </c>
       <c r="X178">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="179" spans="1:24">
@@ -14162,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="X179">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="180" spans="1:24">
@@ -14236,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="X180">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="181" spans="1:24">
@@ -14310,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="X181">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="182" spans="1:24">
@@ -14384,7 +14420,7 @@
         <v>0</v>
       </c>
       <c r="X182">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="183" spans="1:24">
@@ -14458,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="X183">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="184" spans="1:24">
@@ -14532,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="X184">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="185" spans="1:24">
@@ -14606,7 +14642,7 @@
         <v>0</v>
       </c>
       <c r="X185">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -14680,7 +14716,7 @@
         <v>0</v>
       </c>
       <c r="X186">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="187" spans="1:24">
@@ -14754,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="X187">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="188" spans="1:24">
@@ -14828,7 +14864,7 @@
         <v>0</v>
       </c>
       <c r="X188">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="189" spans="1:24">
@@ -14902,7 +14938,7 @@
         <v>0</v>
       </c>
       <c r="X189">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="190" spans="1:24">
@@ -14976,7 +15012,7 @@
         <v>0</v>
       </c>
       <c r="X190">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="191" spans="1:24">
@@ -15050,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="X191">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="192" spans="1:24">
@@ -15124,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="X192">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="193" spans="1:24">
@@ -15198,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="X193">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="194" spans="1:24">
@@ -15272,7 +15308,7 @@
         <v>0</v>
       </c>
       <c r="X194">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -15346,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="X195">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -15420,7 +15456,7 @@
         <v>0</v>
       </c>
       <c r="X196">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -15494,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="X197">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="198" spans="1:24">
@@ -15568,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="X198">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="199" spans="1:24">
@@ -15642,7 +15678,7 @@
         <v>0</v>
       </c>
       <c r="X199">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="200" spans="1:24">
@@ -15716,7 +15752,7 @@
         <v>0</v>
       </c>
       <c r="X200">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -15790,7 +15826,7 @@
         <v>0</v>
       </c>
       <c r="X201">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="202" spans="1:24">
@@ -15864,7 +15900,7 @@
         <v>0</v>
       </c>
       <c r="X202">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="203" spans="1:24">
@@ -15938,7 +15974,7 @@
         <v>0</v>
       </c>
       <c r="X203">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="204" spans="1:24">
@@ -16012,7 +16048,7 @@
         <v>0</v>
       </c>
       <c r="X204">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -16086,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="X205">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -16160,7 +16196,7 @@
         <v>0</v>
       </c>
       <c r="X206">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="207" spans="1:24">
@@ -16234,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="X207">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="208" spans="1:24">
@@ -16308,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="X208">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="209" spans="1:24">
@@ -16382,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="X209">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="210" spans="1:24">
@@ -16456,7 +16492,7 @@
         <v>0</v>
       </c>
       <c r="X210">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="211" spans="1:24">
@@ -16530,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="X211">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="212" spans="1:24">
@@ -16604,7 +16640,7 @@
         <v>0</v>
       </c>
       <c r="X212">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="213" spans="1:24">
@@ -16678,7 +16714,7 @@
         <v>0</v>
       </c>
       <c r="X213">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="214" spans="1:24">
@@ -16752,7 +16788,7 @@
         <v>0</v>
       </c>
       <c r="X214">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="215" spans="1:24">
@@ -16826,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="X215">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="216" spans="1:24">
@@ -16900,7 +16936,7 @@
         <v>0</v>
       </c>
       <c r="X216">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="217" spans="1:24">
@@ -16974,7 +17010,7 @@
         <v>0</v>
       </c>
       <c r="X217">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="218" spans="1:24">
@@ -17048,7 +17084,7 @@
         <v>0</v>
       </c>
       <c r="X218">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="219" spans="1:24">
@@ -17122,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="X219">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="220" spans="1:24">
@@ -17196,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="X220">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="221" spans="1:24">
@@ -17270,7 +17306,895 @@
         <v>0</v>
       </c>
       <c r="X221">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24">
+      <c r="A222" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>1</v>
+      </c>
+      <c r="S222">
+        <v>1</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24">
+      <c r="A223" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>1</v>
+      </c>
+      <c r="S223">
+        <v>1</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24">
+      <c r="A224" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>1</v>
+      </c>
+      <c r="S224">
+        <v>1</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24">
+      <c r="A225" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>1</v>
+      </c>
+      <c r="S225">
+        <v>1</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24">
+      <c r="A226" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>1</v>
+      </c>
+      <c r="S226">
+        <v>1</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24">
+      <c r="A227" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>1</v>
+      </c>
+      <c r="S227">
+        <v>1</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24">
+      <c r="A228" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>1</v>
+      </c>
+      <c r="S228">
+        <v>1</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24">
+      <c r="A229" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>1</v>
+      </c>
+      <c r="S229">
+        <v>1</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24">
+      <c r="A230" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>1</v>
+      </c>
+      <c r="S230">
+        <v>1</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24">
+      <c r="A231" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>1</v>
+      </c>
+      <c r="S231">
+        <v>1</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24">
+      <c r="A232" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>1</v>
+      </c>
+      <c r="S232">
+        <v>1</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24">
+      <c r="A233" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>1</v>
+      </c>
+      <c r="S233">
+        <v>1</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
